--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2722194.811234482</v>
+        <v>2826374.445685555</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>87.84875757168818</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>79.9153410684994</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247824</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>140.3769888899857</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>79.49505480544822</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -880,7 +882,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>44.41113644355572</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>195.5565936082896</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471498</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>72.20138926719608</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>29.33480686836166</v>
+        <v>108.9066966496905</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1189,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1342,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>205.3744371036397</v>
       </c>
       <c r="U10" t="n">
-        <v>186.5830260440433</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1424,13 +1426,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174135</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1582,13 +1584,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>251.3952559653343</v>
+        <v>212.3267021497101</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1658,7 +1660,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>134.1177455876061</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>27.0291980517616</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>208.8723798708782</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>73.57849775387167</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>68.64373283592688</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>83.53432244437066</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>99.97427419833946</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>78.89395497654093</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2764,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.27150084979029</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2852,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174124</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>75.92936329650624</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3007,13 +3009,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>79.90816078628993</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3190,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>130.2301075198431</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3247,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>253.4104779358085</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3427,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>158.2472899190577</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3661,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428269</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,13 +3714,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>203.2455388444555</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3746,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3946,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.24750433886444</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4037,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428173</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4192,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>72.78315874934748</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1601.11348746897</v>
+        <v>1664.678443125553</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1664.678443125553</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4343,7 +4345,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
@@ -4367,13 +4369,13 @@
         <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X2" t="n">
-        <v>1991.252819444782</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y2" t="n">
-        <v>1601.11348746897</v>
+        <v>2051.278283189674</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986304</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>651.5308283972846</v>
+        <v>463.6594280995018</v>
       </c>
       <c r="C4" t="n">
-        <v>651.5308283972846</v>
+        <v>294.723245171595</v>
       </c>
       <c r="D4" t="n">
-        <v>501.4141889849489</v>
+        <v>294.723245171595</v>
       </c>
       <c r="E4" t="n">
-        <v>359.619250712236</v>
+        <v>146.8101515892018</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
         <v>66.51211643218343</v>
@@ -4489,16 +4491,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4516,22 +4518,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1416.425065783662</v>
+        <v>1638.191681214137</v>
       </c>
       <c r="V4" t="n">
-        <v>1161.740577577775</v>
+        <v>1383.50719300825</v>
       </c>
       <c r="W4" t="n">
-        <v>872.3234075408147</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X4" t="n">
-        <v>872.3234075408147</v>
+        <v>866.1004720732717</v>
       </c>
       <c r="Y4" t="n">
-        <v>651.5308283972846</v>
+        <v>645.3078929297416</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1979.067756754391</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C5" t="n">
-        <v>1934.208022973022</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3017.78324040062</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2764.252763674457</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>2433.189876330886</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794325</v>
+        <v>2080.421221060772</v>
       </c>
       <c r="X5" t="n">
-        <v>2755.806928794325</v>
+        <v>1706.955462799692</v>
       </c>
       <c r="Y5" t="n">
-        <v>2365.667596818513</v>
+        <v>1706.955462799692</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4637,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218343</v>
@@ -4647,25 +4649,25 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4699,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>772.5608581015648</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>772.5608581015648</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
         <v>772.5608581015648</v>
@@ -4726,16 +4728,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>845.4915543310558</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X7" t="n">
-        <v>845.4915543310558</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>772.5608581015648</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1548.766690866869</v>
+        <v>1681.836054204828</v>
       </c>
       <c r="C8" t="n">
-        <v>1548.766690866869</v>
+        <v>1312.873537264416</v>
       </c>
       <c r="D8" t="n">
-        <v>1190.500992260118</v>
+        <v>1312.873537264416</v>
       </c>
       <c r="E8" t="n">
-        <v>804.7127396618739</v>
+        <v>927.0852846661717</v>
       </c>
       <c r="F8" t="n">
-        <v>393.7268348722664</v>
+        <v>516.0993798765642</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4826,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176916</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906802</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2325.505862906802</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y8" t="n">
-        <v>1935.36653093099</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>480.687070124138</v>
+        <v>796.8106393615039</v>
       </c>
       <c r="C10" t="n">
-        <v>311.7508871962311</v>
+        <v>627.8744564335971</v>
       </c>
       <c r="D10" t="n">
-        <v>311.7508871962311</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E10" t="n">
-        <v>163.837793613838</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>163.837793613838</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4990,22 +4992,22 @@
         <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1630.015164478708</v>
       </c>
       <c r="U10" t="n">
-        <v>1427.229772340756</v>
+        <v>1340.912297604352</v>
       </c>
       <c r="V10" t="n">
-        <v>1172.545284134869</v>
+        <v>1086.227809398465</v>
       </c>
       <c r="W10" t="n">
-        <v>883.1281140979079</v>
+        <v>796.8106393615039</v>
       </c>
       <c r="X10" t="n">
-        <v>883.1281140979079</v>
+        <v>796.8106393615039</v>
       </c>
       <c r="Y10" t="n">
-        <v>662.3355349543777</v>
+        <v>796.8106393615039</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,19 +5038,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5057,7 +5059,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5072,19 +5074,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5117,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>372.4964262156759</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>867.8220324314346</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1465.200520057987</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>2092.798483612593</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.7772127656159</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>782.841029837709</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429802</v>
@@ -5230,19 +5232,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W13" t="n">
-        <v>1179.766763663633</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X13" t="n">
-        <v>951.7772127656159</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y13" t="n">
-        <v>951.7772127656159</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5275,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5306,10 +5308,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5352,31 +5354,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P15" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>923.4916164683287</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578601</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5476,10 +5478,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,10 +5527,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>557.5558870561822</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>388.6197041282753</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
         <v>388.6197041282753</v>
@@ -5671,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1477.40365196493</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1187.986481927969</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>959.9969310299521</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.2043518864219</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,13 +5740,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5753,7 +5755,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5765,34 +5767,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.6374272687975</v>
+        <v>1022.872235754091</v>
       </c>
       <c r="C22" t="n">
-        <v>631.7012443408906</v>
+        <v>853.9360528261844</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
         <v>631.7012443408906</v>
@@ -5905,55 +5907,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.169680383432</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.485192177545</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1431.068022140585</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="X22" t="n">
-        <v>1203.078471242567</v>
+        <v>1425.313279727861</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.2858920990373</v>
+        <v>1204.520700584331</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797136</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192544</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111709</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245692</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403282</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C25" t="n">
-        <v>633.9926444679666</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D25" t="n">
-        <v>549.6145409888043</v>
+        <v>194.80077839983</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="26">
@@ -6206,25 +6208,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6300,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.21291626627</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>929.7309773356195</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6412,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y28" t="n">
-        <v>1111.379442165859</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="29">
@@ -6455,28 +6457,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6500,10 +6502,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6546,16 +6548,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>904.4616873845483</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3122.22696873374</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C31" t="n">
-        <v>2953.290785805833</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>2953.290785805833</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>2805.37769222344</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>4404.185983673937</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>4115.110757018135</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>3860.426268812248</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="W31" t="n">
-        <v>3571.009098775287</v>
+        <v>1581.823518162841</v>
       </c>
       <c r="X31" t="n">
-        <v>3343.01954787727</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>3122.22696873374</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6695,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>590.9096564684977</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.28814409505</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N33" t="n">
-        <v>1815.886107649656</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>948.5505208511906</v>
+        <v>915.1035305473698</v>
       </c>
       <c r="C34" t="n">
-        <v>779.6143379232838</v>
+        <v>746.1673476194629</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>596.0507082071272</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
         <v>317.6151975578602</v>
@@ -6895,13 +6897,13 @@
         <v>1653.302830625878</v>
       </c>
       <c r="W34" t="n">
-        <v>1397.332650892738</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X34" t="n">
-        <v>1169.343099994721</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y34" t="n">
-        <v>948.5505208511906</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,7 +6973,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -7011,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>801.6918836311989</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>632.7557007032921</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>482.6390612909563</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>482.6390612909563</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>335.7491137930459</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>983.3403484614387</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7166,19 +7168,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7190,34 +7192,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>228.9331431646415</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3026.711098656041</v>
+        <v>2757.723669558404</v>
       </c>
       <c r="C40" t="n">
-        <v>3026.711098656041</v>
+        <v>2588.787486630497</v>
       </c>
       <c r="D40" t="n">
-        <v>2876.594459243706</v>
+        <v>2588.787486630497</v>
       </c>
       <c r="E40" t="n">
-        <v>2728.681365661313</v>
+        <v>2588.787486630497</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>2588.787486630497</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>2421.591387345377</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q40" t="n">
         <v>4690.833152398593</v>
@@ -7357,25 +7359,25 @@
         <v>4623.787448650995</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="T40" t="n">
-        <v>4440.9326143059</v>
+        <v>4221.33114932884</v>
       </c>
       <c r="U40" t="n">
-        <v>4151.857387650098</v>
+        <v>3932.255922673038</v>
       </c>
       <c r="V40" t="n">
-        <v>3946.558863564789</v>
+        <v>3677.571434467151</v>
       </c>
       <c r="W40" t="n">
-        <v>3657.141693527828</v>
+        <v>3388.154264430191</v>
       </c>
       <c r="X40" t="n">
-        <v>3429.152142629811</v>
+        <v>3160.164713532174</v>
       </c>
       <c r="Y40" t="n">
-        <v>3208.359563486281</v>
+        <v>2939.372134388644</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7436,25 +7438,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>417.9651836029414</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>913.2907898187001</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898187001</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.777212765616</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C43" t="n">
-        <v>782.8410298377091</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7594,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y43" t="n">
-        <v>951.777212765616</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7682,7 +7684,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
         <v>3467.980956852889</v>
@@ -7713,40 +7715,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>4041.592414847077</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3752.175244810116</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3524.185693912098</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-8.384404281969182e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23470,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>35.12774237125669</v>
+        <v>74.19629618688089</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>33.12907551102177</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.4047645948076</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>43.2652634529498</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>75.03697526434068</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24172,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>217.5407415533173</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>65.0811505738417</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844822971</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>66.52709304639032</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24652,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.3131525023045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>69.49168472642501</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24895,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>145.8014946027472</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>16.2038551267261</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>33.11252040078247</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>7.276848373211095</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.2291039219412</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>48.89210447937251</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25834,10 +25836,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>187.3371490132303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194215</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>179.3544845744805</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>757589.5960834773</v>
+        <v>757589.5960834774</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>757589.5960834771</v>
+        <v>757589.5960834773</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>757589.5960834774</v>
+        <v>757589.5960834775</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>757589.5960834774</v>
+        <v>757589.5960834773</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>757589.5960834775</v>
+        <v>757589.5960834773</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>757589.5960834773</v>
+        <v>757589.5960834774</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>757589.5960834775</v>
+        <v>757589.5960834774</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>757589.5960834774</v>
+        <v>757589.5960834773</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380341</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380337</v>
@@ -26323,37 +26325,37 @@
         <v>665895.9447442548</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442555</v>
       </c>
       <c r="G2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="H2" t="n">
         <v>665895.9447442549</v>
-      </c>
-      <c r="H2" t="n">
-        <v>665895.9447442546</v>
       </c>
       <c r="I2" t="n">
         <v>665895.9447442552</v>
       </c>
       <c r="J2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="K2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="K2" t="n">
-        <v>665895.9447442548</v>
-      </c>
       <c r="L2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.944744255</v>
       </c>
       <c r="N2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442545</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442555</v>
+        <v>665895.9447442548</v>
       </c>
     </row>
     <row r="3">
@@ -26372,31 +26374,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972769</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.370099883548737e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815708</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="C4" t="n">
         <v>90964.01098815707</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815714</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="E4" t="n">
+        <v>11776.9762168058</v>
+      </c>
+      <c r="F4" t="n">
         <v>11776.97621680582</v>
-      </c>
-      <c r="F4" t="n">
-        <v>11776.97621680576</v>
       </c>
       <c r="G4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680578</v>
       </c>
       <c r="I4" t="n">
         <v>11776.97621680582</v>
@@ -26442,7 +26444,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680585</v>
       </c>
       <c r="L4" t="n">
         <v>11776.97621680582</v>
@@ -26451,10 +26453,10 @@
         <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="O4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="P4" t="n">
         <v>11776.97621680582</v>
@@ -26488,7 +26490,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-850283.2371391096</v>
+        <v>-850283.2371391093</v>
       </c>
       <c r="C6" t="n">
-        <v>478461.5085884838</v>
+        <v>478461.5085884833</v>
       </c>
       <c r="D6" t="n">
-        <v>478461.5085884833</v>
+        <v>478461.5085884836</v>
       </c>
       <c r="E6" t="n">
-        <v>227583.9768961864</v>
+        <v>227583.9768961865</v>
       </c>
       <c r="F6" t="n">
+        <v>552996.4387035426</v>
+      </c>
+      <c r="G6" t="n">
+        <v>552996.4387035423</v>
+      </c>
+      <c r="H6" t="n">
         <v>552996.4387035419</v>
       </c>
-      <c r="G6" t="n">
-        <v>552996.4387035421</v>
-      </c>
-      <c r="H6" t="n">
-        <v>552996.4387035416</v>
-      </c>
       <c r="I6" t="n">
+        <v>552996.4387035418</v>
+      </c>
+      <c r="J6" t="n">
+        <v>335465.236306265</v>
+      </c>
+      <c r="K6" t="n">
+        <v>552996.438703542</v>
+      </c>
+      <c r="L6" t="n">
         <v>552996.4387035422</v>
       </c>
-      <c r="J6" t="n">
-        <v>335465.2363062645</v>
-      </c>
-      <c r="K6" t="n">
-        <v>552996.4387035419</v>
-      </c>
-      <c r="L6" t="n">
-        <v>552996.4387035419</v>
-      </c>
       <c r="M6" t="n">
-        <v>467941.4107680299</v>
+        <v>467941.4107680302</v>
       </c>
       <c r="N6" t="n">
         <v>552996.4387035419</v>
       </c>
       <c r="O6" t="n">
-        <v>552996.4387035418</v>
+        <v>552996.4387035415</v>
       </c>
       <c r="P6" t="n">
-        <v>552996.4387035426</v>
+        <v>552996.4387035419</v>
       </c>
     </row>
   </sheetData>
@@ -26707,16 +26709,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26793,7 +26795,7 @@
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26805,10 +26807,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.962624854435922e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.962624854435922e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>266.8342840489948</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>289.8157596099696</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>6.05697375658346</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>65.92599321748303</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>320.8617553274518</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>8.361376531330535</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>83.32522828944121</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>146.3832640848987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>381.5869187850918</v>
+        <v>302.0150290037629</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27909,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28062,10 +28064,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>14.17451217252946</v>
       </c>
       <c r="U10" t="n">
-        <v>99.62881216156961</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28150,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-5.142369289011372e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28849,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29572,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>5.745110207672475e-13</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -30226,7 +30228,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30466,7 +30468,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31604,7 +31606,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138796</v>
@@ -31835,16 +31837,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5509096439921</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
@@ -31853,16 +31855,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>574.6535388222617</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32072,13 +32074,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
@@ -32090,16 +32092,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q15" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>362.8934092184361</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>355.4083096598243</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120936</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551089</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O24" t="n">
-        <v>309.9424824173362</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,31 +33022,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>615.1181176946646</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33266,7 +33268,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>468.9317632522997</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33494,10 +33496,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
@@ -33509,19 +33511,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>697.0074482175629</v>
       </c>
       <c r="O33" t="n">
-        <v>422.3057151140782</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,16 +33748,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>369.1789913099997</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33971,7 +33973,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>261.5336801130329</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33986,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34132,7 +34134,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34153,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,19 +34207,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>463.4789474089069</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34232,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067238</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,7 +34453,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>196.3041720119</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,7 +35254,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340054</v>
@@ -35483,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7094706696331</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,16 +35503,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>432.0572943778172</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
@@ -35738,16 +35740,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>224.339029438562</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>213.2742757378061</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287602</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>37.76383318074991</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O24" t="n">
-        <v>167.3462379728918</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36668,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>483.7764056113314</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,7 +36916,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>330.3773834724255</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37142,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37157,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>565.6657361342296</v>
       </c>
       <c r="O33" t="n">
-        <v>279.7094706696337</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,16 +37396,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>134.6960534463662</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37634,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>325.6375084345479</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37880,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317867</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38020,7 +38022,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,7 +38101,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>57.74979223202579</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2826374.445685555</v>
+        <v>2822361.835671561</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8797196.697983174</v>
+        <v>8797196.697983172</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>87.84875757168818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>205.6626697667481</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247824</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -819,22 +819,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>79.49505480544822</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>52.61222893213956</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>195.5565936082896</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>227.7172236952955</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>68.85005436466977</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>203.1977700471498</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>184.4530101301301</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>108.9066966496905</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1186,10 +1186,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,10 +1299,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1311,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>20.84901245549809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>205.3744371036397</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174135</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>212.3267021497101</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1660,7 +1660,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>134.1177455876061</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>55.52079624060465</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624841</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>73.57849775387167</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>99.97427419833946</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>78.89395497654093</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>159.3471710336511</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174124</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3009,13 +3009,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>79.90816078628993</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>130.2301075198431</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576164</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>42.5313457611372</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428269</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>177.6965697803346</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428173</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1664.678443125553</v>
+        <v>1844.338003964587</v>
       </c>
       <c r="C2" t="n">
-        <v>1664.678443125553</v>
+        <v>1475.375487024176</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>1117.109788417425</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>731.321535819181</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4345,7 +4345,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
@@ -4357,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450754</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.278283189674</v>
+        <v>2621.077176004521</v>
       </c>
       <c r="Y2" t="n">
-        <v>2051.278283189674</v>
+        <v>2230.937844028709</v>
       </c>
     </row>
     <row r="3">
@@ -4400,22 +4400,22 @@
         <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686084</v>
+        <v>936.5735814686088</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064759</v>
+        <v>846.0716871064762</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>827.0643955080142</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986304</v>
+        <v>920.7416649986314</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
         <v>1972.980349513959</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>463.6594280995018</v>
+        <v>677.4387267498528</v>
       </c>
       <c r="C4" t="n">
-        <v>294.723245171595</v>
+        <v>677.4387267498528</v>
       </c>
       <c r="D4" t="n">
-        <v>294.723245171595</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E4" t="n">
-        <v>146.8101515892018</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
         <v>66.51211643218343</v>
@@ -4491,16 +4491,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U4" t="n">
-        <v>1638.191681214137</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V4" t="n">
-        <v>1383.50719300825</v>
+        <v>1361.01298720966</v>
       </c>
       <c r="W4" t="n">
-        <v>1094.090022971289</v>
+        <v>1307.86932162164</v>
       </c>
       <c r="X4" t="n">
-        <v>866.1004720732717</v>
+        <v>1079.879770723623</v>
       </c>
       <c r="Y4" t="n">
-        <v>645.3078929297416</v>
+        <v>859.0871915800925</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1320.35562273557</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.35562273557</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,13 +4567,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3017.78324040062</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2764.252763674457</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2433.189876330886</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W5" t="n">
-        <v>2080.421221060772</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X5" t="n">
-        <v>1706.955462799692</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="Y5" t="n">
-        <v>1706.955462799692</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>917.616325937273</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>748.6801430093661</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>598.5635035970304</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>450.6504100146373</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>303.7604625167269</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>136.0576258914458</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4728,16 +4728,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="W7" t="n">
-        <v>1722.044275313594</v>
+        <v>1548.04692080906</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>1320.057369911043</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>1099.264790767513</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1681.836054204828</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1312.873537264416</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1312.873537264416</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>927.0852846661717</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>516.0993798765642</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4801,13 +4801,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4822,10 +4822,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180639</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="Y8" t="n">
-        <v>1681.836054204828</v>
+        <v>2531.483610522581</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,13 +4886,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>796.8106393615039</v>
+        <v>1015.34761180106</v>
       </c>
       <c r="C10" t="n">
-        <v>627.8744564335971</v>
+        <v>846.4114288731531</v>
       </c>
       <c r="D10" t="n">
-        <v>477.7578170212613</v>
+        <v>696.2947894608174</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>548.3816958784242</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>401.4917483805139</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>233.7889117552328</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>87.5717249730906</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4989,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1630.015164478708</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1340.912297604352</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V10" t="n">
-        <v>1086.227809398465</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="W10" t="n">
-        <v>796.8106393615039</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="X10" t="n">
-        <v>796.8106393615039</v>
+        <v>1417.78865577483</v>
       </c>
       <c r="Y10" t="n">
-        <v>796.8106393615039</v>
+        <v>1196.9960766313</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5038,28 +5038,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5074,10 +5074,10 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852888</v>
@@ -5086,7 +5086,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5199,49 +5199,49 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510509</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304622</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1508.305175991783</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1280.315625093766</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
         <v>1280.315625093766</v>
@@ -5275,19 +5275,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5296,7 +5296,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5308,10 +5308,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5372,13 +5372,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>923.4916164683287</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5478,10 +5478,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683287</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5509,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803938</v>
@@ -5603,19 +5603,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5655,22 +5655,22 @@
         <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5700,7 +5700,7 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.881471216014</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
         <v>2171.280006238955</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5770,13 +5770,13 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492579</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>923.0670414349513</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1022.872235754091</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>853.9360528261844</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1653.302830625878</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1425.313279727861</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1204.520700584331</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111709</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245692</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403282</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,61 +6123,61 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400726</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121657</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>194.80077839983</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797191</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797191</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797191</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
         <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
         <v>1688.385853854707</v>
@@ -6186,13 +6186,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138424</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703123</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6223,13 +6223,13 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,16 +6238,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>741.8431516380886</v>
+        <v>923.4916164683287</v>
       </c>
       <c r="C28" t="n">
-        <v>572.9069687101817</v>
+        <v>923.4916164683287</v>
       </c>
       <c r="D28" t="n">
-        <v>422.7903292978459</v>
+        <v>773.374977055993</v>
       </c>
       <c r="E28" t="n">
-        <v>422.7903292978459</v>
+        <v>625.4618834735999</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>478.5719359756895</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y28" t="n">
-        <v>923.4916164683283</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1871.240688199802</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1581.823518162841</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>915.1035305473698</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>746.1673476194629</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>596.0507082071272</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6934,16 +6934,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7028,13 +7028,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2336.956424518383</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.354959541324</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,64 +7162,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2757.723669558404</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>2588.787486630497</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>2588.787486630497</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>2588.787486630497</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>2588.787486630497</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>2421.591387345377</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673038</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467151</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>3388.154264430191</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>3160.164713532174</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>2939.372134388644</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7396,25 +7396,25 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,25 +7423,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466572</v>
@@ -7484,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.8641191832228</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>634.9279362553159</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2267.47159895366</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.396372297858</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1723.711884091971</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1434.29471405501</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>985.5125840134625</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7715,40 +7715,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273898</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-8.384404281969182e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>74.19629618688089</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>33.12907551102177</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>125.5054897610399</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>75.03697526434068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>46.45968844822971</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>66.52709304639032</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>6.176967258617793</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>145.8014946027472</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>16.2038551267261</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>138.4949402405074</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.2291039219412</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>39.70888054695368</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194215</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>757589.5960834774</v>
+        <v>757589.5960834775</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>757589.5960834774</v>
+        <v>757589.5960834773</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>757589.5960834775</v>
+        <v>757589.5960834773</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>757589.5960834773</v>
+        <v>757589.5960834774</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>757589.5960834773</v>
+        <v>757589.5960834774</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>757589.5960834775</v>
+        <v>757589.5960834773</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>757589.5960834774</v>
+        <v>757589.5960834773</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>757589.5960834775</v>
+        <v>757589.5960834773</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442555</v>
+        <v>665895.944744255</v>
       </c>
       <c r="G2" t="n">
         <v>665895.9447442553</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
       <c r="I2" t="n">
+        <v>665895.9447442554</v>
+      </c>
+      <c r="J2" t="n">
         <v>665895.9447442552</v>
       </c>
-      <c r="J2" t="n">
-        <v>665895.9447442548</v>
-      </c>
       <c r="K2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.944744255</v>
       </c>
       <c r="M2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442545</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26374,31 +26374,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972769</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>2.370099883548737e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,31 +26420,31 @@
         <v>90964.01098815707</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815707</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="D4" t="n">
         <v>90964.0109881571</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.9762168058</v>
+        <v>11776.97621680578</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680576</v>
       </c>
       <c r="G4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680576</v>
       </c>
       <c r="J4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680585</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
         <v>11776.97621680582</v>
@@ -26453,10 +26453,10 @@
         <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680588</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
-        <v>11776.97621680588</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="P4" t="n">
         <v>11776.97621680582</v>
@@ -26490,7 +26490,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-850283.2371391093</v>
+        <v>-850283.2371391095</v>
       </c>
       <c r="C6" t="n">
-        <v>478461.5085884833</v>
+        <v>478461.5085884831</v>
       </c>
       <c r="D6" t="n">
-        <v>478461.5085884836</v>
+        <v>478461.508588483</v>
       </c>
       <c r="E6" t="n">
-        <v>227583.9768961865</v>
+        <v>227236.5976418297</v>
       </c>
       <c r="F6" t="n">
-        <v>552996.4387035426</v>
+        <v>552649.0594491849</v>
       </c>
       <c r="G6" t="n">
-        <v>552996.4387035423</v>
+        <v>552649.0594491854</v>
       </c>
       <c r="H6" t="n">
-        <v>552996.4387035419</v>
+        <v>552649.0594491852</v>
       </c>
       <c r="I6" t="n">
-        <v>552996.4387035418</v>
+        <v>552649.0594491856</v>
       </c>
       <c r="J6" t="n">
-        <v>335465.236306265</v>
+        <v>335117.8570519078</v>
       </c>
       <c r="K6" t="n">
-        <v>552996.438703542</v>
+        <v>552649.0594491852</v>
       </c>
       <c r="L6" t="n">
-        <v>552996.4387035422</v>
+        <v>552649.0594491852</v>
       </c>
       <c r="M6" t="n">
-        <v>467941.4107680302</v>
+        <v>467594.0315136733</v>
       </c>
       <c r="N6" t="n">
-        <v>552996.4387035419</v>
+        <v>552649.059449185</v>
       </c>
       <c r="O6" t="n">
-        <v>552996.4387035415</v>
+        <v>552649.059449185</v>
       </c>
       <c r="P6" t="n">
-        <v>552996.4387035419</v>
+        <v>552649.059449185</v>
       </c>
     </row>
   </sheetData>
@@ -26709,16 +26709,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26804,7 +26804,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.962624854435922e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.962624854435922e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>266.8342840489948</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>201.2133759749633</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,22 +27539,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>65.92599321748303</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>233.9107694044515</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>8.361376531330535</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>158.5207149607581</v>
       </c>
     </row>
     <row r="6">
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>75.90496054965101</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>83.32522828944121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>198.2808315333505</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>302.0150290037629</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>75.50340795433999</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>14.17451217252946</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-5.142369289011372e-13</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29574,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>5.745110207672475e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -30228,7 +30228,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30468,7 +30468,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>574.6535388222617</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32092,16 +32092,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>353.130074847795</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32323,22 +32323,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N18" t="n">
-        <v>320.9147064709962</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32548,10 +32548,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422586</v>
@@ -32560,22 +32560,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>519.7862086120936</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>175.6052721551089</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437246</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,7 +32815,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796262</v>
@@ -32873,31 +32873,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
         <v>0.1345549672467222</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>697.0074482175629</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>369.1789913099997</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067238</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>432.0572943778172</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35740,16 +35740,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35971,22 +35971,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N18" t="n">
-        <v>189.5729943876629</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36208,22 +36208,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>388.4444965287602</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>37.76383318074991</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674334</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992802</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>565.6657361342296</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>226.5827468655553</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902399</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317867</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2822361.835671561</v>
+        <v>2824122.365974345</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -667,16 +667,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>35.99852294946741</v>
       </c>
       <c r="F2" t="n">
-        <v>205.6626697667481</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -825,7 +825,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1.461306382985206</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>52.61222893213956</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>207.100555673503</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -955,16 +955,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>227.7172236952955</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>68.85005436466977</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>42.10240563878645</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>184.4530101301301</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1186,10 +1186,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>94.8127598026153</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>20.84901245549809</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>53.4522744295482</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576153</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>188.1822852137265</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.06560892428213</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>106.129180378768</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,10 +1824,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>91.89996056624841</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428212</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>27.0291980517616</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>159.3471710336511</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>60.64713141731118</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1844.338003964587</v>
+        <v>1995.741330469122</v>
       </c>
       <c r="C2" t="n">
-        <v>1475.375487024176</v>
+        <v>1626.77881352871</v>
       </c>
       <c r="D2" t="n">
-        <v>1117.109788417425</v>
+        <v>1268.51311492196</v>
       </c>
       <c r="E2" t="n">
-        <v>731.321535819181</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2994.542934265601</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2994.542934265601</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X2" t="n">
-        <v>2621.077176004521</v>
+        <v>2382.341170533244</v>
       </c>
       <c r="Y2" t="n">
-        <v>2230.937844028709</v>
+        <v>2382.341170533244</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686088</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064762</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080142</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>677.4387267498528</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="C4" t="n">
-        <v>677.4387267498528</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>527.322087337517</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396067</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4515,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1835.9880237925</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1614.221408362027</v>
       </c>
       <c r="U4" t="n">
-        <v>1615.697475415547</v>
+        <v>1325.11854148767</v>
       </c>
       <c r="V4" t="n">
-        <v>1361.01298720966</v>
+        <v>1325.11854148767</v>
       </c>
       <c r="W4" t="n">
-        <v>1307.86932162164</v>
+        <v>1325.11854148767</v>
       </c>
       <c r="X4" t="n">
-        <v>1079.879770723623</v>
+        <v>1325.11854148767</v>
       </c>
       <c r="Y4" t="n">
-        <v>859.0871915800925</v>
+        <v>1104.32596234414</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1887.813801820606</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,10 +4567,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4582,37 +4582,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
         <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410103</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2961.784676410103</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>2961.784676410103</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1887.813801820606</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>917.616325937273</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="C7" t="n">
-        <v>748.6801430093661</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="D7" t="n">
-        <v>598.5635035970304</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E7" t="n">
-        <v>450.6504100146373</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>303.7604625167269</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>136.0576258914458</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1884.766865625072</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1693.080981451898</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1471.314366021425</v>
       </c>
       <c r="U7" t="n">
-        <v>1837.464090846021</v>
+        <v>1471.314366021425</v>
       </c>
       <c r="V7" t="n">
-        <v>1837.464090846021</v>
+        <v>1216.629877815538</v>
       </c>
       <c r="W7" t="n">
-        <v>1548.04692080906</v>
+        <v>927.2127077785769</v>
       </c>
       <c r="X7" t="n">
-        <v>1320.057369911043</v>
+        <v>699.2231568805596</v>
       </c>
       <c r="Y7" t="n">
-        <v>1099.264790767513</v>
+        <v>478.4305777370295</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C8" t="n">
         <v>1976.204921733553</v>
@@ -4801,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2531.483610522581</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="Y8" t="n">
-        <v>2531.483610522581</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="9">
@@ -4877,28 +4877,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1015.34761180106</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>846.4114288731531</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>696.2947894608174</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>548.3816958784242</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>401.4917483805139</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>233.7889117552328</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>87.5717249730906</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4989,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V10" t="n">
-        <v>1645.778206672847</v>
+        <v>1783.471894452538</v>
       </c>
       <c r="W10" t="n">
-        <v>1645.778206672847</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="X10" t="n">
-        <v>1417.78865577483</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y10" t="n">
-        <v>1196.9960766313</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="11">
@@ -5035,49 +5035,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852888</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>801.6605733532801</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5229,22 +5229,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>983.3090381835199</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5272,58 +5272,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>1057.955258982919</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>889.0190760550122</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>738.9024366426764</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1460.396302956689</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>1239.603723813159</v>
       </c>
     </row>
     <row r="17">
@@ -5509,43 +5509,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5655,49 +5655,49 @@
         <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282754</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458823</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
         <v>2264.108249235165</v>
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5746,55 +5746,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5983,40 +5983,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,19 +6217,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694708</v>
@@ -6250,10 +6250,10 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,7 +6299,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
         <v>95.58405025273905</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>923.4916164683287</v>
+        <v>653.7474797708873</v>
       </c>
       <c r="C28" t="n">
-        <v>923.4916164683287</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>773.374977055993</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>625.4618834735999</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>478.5719359756895</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611859</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>923.4916164683287</v>
+        <v>835.395944601127</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,13 +7186,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075809</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7736,7 +7736,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>945.402603663004</v>
       </c>
     </row>
   </sheetData>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>-7.931708344448345e-14</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>37.52737017531069</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.54986409393022</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>40.30478226780113</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>125.5054897610399</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194174</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>138.4949402405072</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>6.176967258617793</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>104.8770068749577</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>757589.5960834775</v>
+        <v>757589.5960834774</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>757589.5960834773</v>
+        <v>757589.5960834775</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>757589.5960834774</v>
+        <v>757589.5960834773</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>757589.5960834774</v>
+        <v>757589.5960834773</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>757589.5960834774</v>
+        <v>757589.5960834773</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>757589.5960834773</v>
+        <v>757589.5960834774</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380334</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442546</v>
       </c>
       <c r="F2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.944744255</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442554</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442546</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="O2" t="n">
         <v>665895.9447442549</v>
@@ -26368,16 +26368,16 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.469155386075727e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815707</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815705</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815711</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680586</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680576</v>
+        <v>11776.97621680585</v>
       </c>
       <c r="G4" t="n">
         <v>11776.97621680582</v>
@@ -26438,10 +26438,10 @@
         <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680576</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680578</v>
       </c>
       <c r="K4" t="n">
         <v>11776.97621680582</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-850283.2371391095</v>
+        <v>-850283.2371391096</v>
       </c>
       <c r="C6" t="n">
-        <v>478461.5085884831</v>
+        <v>478461.5085884834</v>
       </c>
       <c r="D6" t="n">
         <v>478461.508588483</v>
       </c>
       <c r="E6" t="n">
-        <v>227236.5976418297</v>
+        <v>227549.2389707509</v>
       </c>
       <c r="F6" t="n">
-        <v>552649.0594491849</v>
+        <v>552961.7007781065</v>
       </c>
       <c r="G6" t="n">
-        <v>552649.0594491854</v>
+        <v>552961.7007781065</v>
       </c>
       <c r="H6" t="n">
-        <v>552649.0594491852</v>
+        <v>552961.7007781061</v>
       </c>
       <c r="I6" t="n">
-        <v>552649.0594491856</v>
+        <v>552961.7007781061</v>
       </c>
       <c r="J6" t="n">
-        <v>335117.8570519078</v>
+        <v>335430.4983808285</v>
       </c>
       <c r="K6" t="n">
-        <v>552649.0594491852</v>
+        <v>552961.7007781062</v>
       </c>
       <c r="L6" t="n">
-        <v>552649.0594491852</v>
+        <v>552961.7007781062</v>
       </c>
       <c r="M6" t="n">
-        <v>467594.0315136733</v>
+        <v>467906.6728425942</v>
       </c>
       <c r="N6" t="n">
-        <v>552649.059449185</v>
+        <v>552961.7007781062</v>
       </c>
       <c r="O6" t="n">
-        <v>552649.059449185</v>
+        <v>552961.7007781063</v>
       </c>
       <c r="P6" t="n">
-        <v>552649.059449185</v>
+        <v>552961.7007781063</v>
       </c>
     </row>
   </sheetData>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26971,7 +26971,7 @@
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>345.9318471227944</v>
       </c>
       <c r="F2" t="n">
-        <v>201.2133759749633</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,22 +27587,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>188.3077189484567</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>233.9107694044515</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>158.1723360975045</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>158.5207149607581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>75.90496054965101</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.82974703126088</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>198.2808315333505</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>274.9183408758537</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>75.50340795433999</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28070,13 +28070,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>198.6853688942798</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34456,31 +34456,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
